--- a/data/tehilim-data/34.xlsx
+++ b/data/tehilim-data/34.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="300">
   <si>
     <t>original</t>
   </si>
@@ -445,19 +445,28 @@
     <t>не лишатся</t>
   </si>
   <si>
-    <t>כל-טוב</t>
+    <t>כל</t>
   </si>
   <si>
-    <t>всякого блага</t>
+    <t xml:space="preserve">всякого </t>
+  </si>
+  <si>
+    <t>блага</t>
   </si>
   <si>
     <t>יב</t>
   </si>
   <si>
-    <t>לכו-בנים</t>
+    <t>לכו</t>
   </si>
   <si>
-    <t>придите, сыновья</t>
+    <t>придите</t>
+  </si>
+  <si>
+    <t>בנים</t>
+  </si>
+  <si>
+    <t>сыновья</t>
   </si>
   <si>
     <t>שמעו</t>
@@ -859,10 +868,13 @@
     <t>и не будут наказаны</t>
   </si>
   <si>
-    <t>כל-החסים</t>
+    <t xml:space="preserve">все </t>
   </si>
   <si>
-    <t>все укрывающиеся</t>
+    <t>החסים</t>
+  </si>
+  <si>
+    <t>укрывающиеся</t>
   </si>
   <si>
     <t>יהי</t>
@@ -905,7 +917,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -917,13 +929,27 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -932,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -945,6 +971,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3883,11 +3918,11 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B86" s="4">
-        <v>12.0</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3918,8 +3953,8 @@
       <c r="A87" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>148</v>
+      <c r="B87" s="4">
+        <v>12.0</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3948,10 +3983,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3979,11 +4014,11 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -4012,10 +4047,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -4044,10 +4079,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4076,10 +4111,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4108,10 +4143,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="4">
-        <v>13.0</v>
+        <v>97</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4174,8 +4209,8 @@
       <c r="A95" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>161</v>
+      <c r="B95" s="4">
+        <v>13.0</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4204,10 +4239,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4236,10 +4271,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4268,10 +4303,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4300,10 +4335,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4332,10 +4367,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4364,7 +4399,7 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>172</v>
@@ -4398,8 +4433,8 @@
       <c r="A102" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B102" s="4">
-        <v>14.0</v>
+      <c r="B102" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4428,7 +4463,7 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>175</v>
@@ -4462,8 +4497,8 @@
       <c r="A104" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>177</v>
+      <c r="B104" s="4">
+        <v>14.0</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4492,10 +4527,10 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4524,10 +4559,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4556,10 +4591,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4588,10 +4623,10 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4620,10 +4655,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B109" s="4">
-        <v>15.0</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4684,10 +4719,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>179</v>
+        <v>189</v>
+      </c>
+      <c r="B111" s="4">
+        <v>15.0</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4716,10 +4751,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4748,10 +4783,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4812,10 +4847,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4844,10 +4879,10 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4876,10 +4911,10 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="B117" s="4">
-        <v>16.0</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4940,10 +4975,10 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>46</v>
+        <v>201</v>
+      </c>
+      <c r="B119" s="4">
+        <v>16.0</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4972,10 +5007,10 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -5004,10 +5039,10 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>204</v>
+        <v>46</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -5036,10 +5071,10 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -5068,10 +5103,10 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="B123" s="4">
-        <v>17.0</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -5132,10 +5167,10 @@
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>46</v>
+        <v>210</v>
+      </c>
+      <c r="B125" s="4">
+        <v>17.0</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -5164,10 +5199,10 @@
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -5196,10 +5231,10 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -5228,10 +5263,10 @@
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B128" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -5260,10 +5295,10 @@
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B129" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5292,10 +5327,10 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5324,10 +5359,10 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B131" s="4">
-        <v>18.0</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5388,10 +5423,10 @@
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>85</v>
+        <v>223</v>
+      </c>
+      <c r="B133" s="4">
+        <v>18.0</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5420,10 +5455,10 @@
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5452,10 +5487,10 @@
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5484,7 +5519,7 @@
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>226</v>
@@ -5519,7 +5554,7 @@
         <v>227</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5548,10 +5583,10 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="B138" s="4">
-        <v>19.0</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5612,10 +5647,10 @@
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>21</v>
+        <v>232</v>
+      </c>
+      <c r="B140" s="4">
+        <v>19.0</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5644,10 +5679,10 @@
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5676,10 +5711,10 @@
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5708,10 +5743,10 @@
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5740,10 +5775,10 @@
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5772,10 +5807,10 @@
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5804,10 +5839,10 @@
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B146" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="B146" s="4">
-        <v>20.0</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5870,8 +5905,8 @@
       <c r="A148" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>246</v>
+      <c r="B148" s="4">
+        <v>20.0</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5900,10 +5935,10 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B149" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5932,10 +5967,10 @@
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5964,10 +5999,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5996,10 +6031,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -6028,10 +6063,10 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>97</v>
+        <v>252</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -6060,10 +6095,10 @@
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B154" s="4">
-        <v>21.0</v>
+        <v>254</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -6092,10 +6127,10 @@
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -6126,8 +6161,8 @@
       <c r="A156" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>257</v>
+      <c r="B156" s="4">
+        <v>21.0</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -6156,10 +6191,10 @@
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B157" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -6188,10 +6223,10 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B158" s="4" t="s">
         <v>260</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>261</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -6220,10 +6255,10 @@
     </row>
     <row r="159">
       <c r="A159" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>263</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -6252,10 +6287,10 @@
     </row>
     <row r="160">
       <c r="A160" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="B160" s="4">
-        <v>22.0</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -6318,8 +6353,8 @@
       <c r="A162" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>268</v>
+      <c r="B162" s="4">
+        <v>22.0</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -6348,10 +6383,10 @@
     </row>
     <row r="163">
       <c r="A163" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B163" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6380,10 +6415,10 @@
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6412,10 +6447,10 @@
     </row>
     <row r="165">
       <c r="A165" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6444,10 +6479,10 @@
     </row>
     <row r="166">
       <c r="A166" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B166" s="4">
-        <v>23.0</v>
+        <v>250</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6508,10 +6543,10 @@
     </row>
     <row r="168">
       <c r="A168" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>21</v>
+        <v>276</v>
+      </c>
+      <c r="B168" s="4">
+        <v>23.0</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6540,10 +6575,10 @@
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6572,10 +6607,10 @@
     </row>
     <row r="170">
       <c r="A170" s="3" t="s">
-        <v>278</v>
+        <v>97</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6604,10 +6639,10 @@
     </row>
     <row r="171">
       <c r="A171" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B171" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>281</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6636,10 +6671,10 @@
     </row>
     <row r="172">
       <c r="A172" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B172" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -6668,10 +6703,10 @@
     </row>
     <row r="173">
       <c r="A173" s="3" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6700,7 +6735,7 @@
     </row>
     <row r="174">
       <c r="A174" s="3" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>285</v>
@@ -6731,10 +6766,10 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="6" t="s">
         <v>287</v>
       </c>
       <c r="C175" s="2"/>
@@ -6764,10 +6799,10 @@
     </row>
     <row r="176">
       <c r="A176" s="3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -6860,10 +6895,10 @@
     </row>
     <row r="179">
       <c r="A179" s="3" t="s">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -6892,10 +6927,10 @@
     </row>
     <row r="180">
       <c r="A180" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -6923,8 +6958,12 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
+      <c r="A181" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>295</v>
+      </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -6951,8 +6990,12 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="3"/>
-      <c r="B182" s="2"/>
+      <c r="A182" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -6979,8 +7022,12 @@
       <c r="Z182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="3"/>
-      <c r="B183" s="2"/>
+      <c r="A183" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7007,7 +7054,7 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="3"/>
+      <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -7651,7 +7698,7 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207">
-      <c r="A207" s="2"/>
+      <c r="A207" s="3"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -7679,7 +7726,7 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208">
-      <c r="A208" s="2"/>
+      <c r="A208" s="3"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -7707,7 +7754,7 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209">
-      <c r="A209" s="2"/>
+      <c r="A209" s="3"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -29910,6 +29957,90 @@
       <c r="Y1001" s="2"/>
       <c r="Z1001" s="2"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
